--- a/reports/contracts/files/contract_sketch.xlsx
+++ b/reports/contracts/files/contract_sketch.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My documents\Python\myDev\jupyter_mod\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\python\ecm\reports\contracts\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11556"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11550"/>
   </bookViews>
   <sheets>
     <sheet name="Договоры" sheetId="1" r:id="rId1"/>
@@ -429,28 +429,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M150"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" style="4" customWidth="1"/>
     <col min="2" max="2" width="25" style="5" customWidth="1"/>
     <col min="3" max="3" width="18" style="4" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="4" customWidth="1"/>
     <col min="5" max="5" width="17" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="27.33203125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="22.33203125" style="4" customWidth="1"/>
-    <col min="9" max="10" width="33.5546875" style="4" customWidth="1"/>
-    <col min="11" max="11" width="20.5546875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="16.33203125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="13.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="4"/>
+    <col min="6" max="6" width="12.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" style="4" customWidth="1"/>
+    <col min="9" max="10" width="33.5703125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -489,7 +489,7 @@
       </c>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -526,478 +526,480 @@
       <c r="L3" s="6">
         <v>12</v>
       </c>
-      <c r="M3" s="6"/>
-    </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M3" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="2"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B7" s="2"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B10" s="2"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B11" s="2"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="2"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B14" s="2"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B15" s="2"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B16" s="2"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B17" s="2"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B18" s="2"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B19" s="2"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B20" s="2"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B21" s="2"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B22" s="2"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B23" s="2"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B24" s="2"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B25" s="2"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B26" s="2"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B27" s="2"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B28" s="2"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B29" s="2"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B30" s="2"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B31" s="2"/>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B32" s="2"/>
       <c r="M32" s="3"/>
     </row>
-    <row r="33" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B33" s="2"/>
       <c r="M33" s="3"/>
     </row>
-    <row r="34" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B34" s="2"/>
       <c r="M34" s="3"/>
     </row>
-    <row r="35" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B37" s="2"/>
     </row>
-    <row r="38" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B58" s="2"/>
     </row>
-    <row r="59" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B59" s="2"/>
     </row>
-    <row r="60" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B60" s="2"/>
     </row>
-    <row r="61" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B61" s="2"/>
     </row>
-    <row r="62" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B62" s="2"/>
     </row>
-    <row r="63" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B63" s="2"/>
     </row>
-    <row r="64" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B64" s="2"/>
     </row>
-    <row r="65" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B65" s="2"/>
     </row>
-    <row r="66" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B66" s="2"/>
     </row>
-    <row r="67" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B67" s="2"/>
     </row>
-    <row r="68" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B68" s="2"/>
     </row>
-    <row r="69" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B69" s="2"/>
     </row>
-    <row r="70" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B70" s="2"/>
     </row>
-    <row r="71" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B71" s="2"/>
     </row>
-    <row r="72" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B72" s="2"/>
     </row>
-    <row r="73" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B73" s="2"/>
     </row>
-    <row r="74" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B74" s="2"/>
     </row>
-    <row r="75" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B75" s="2"/>
     </row>
-    <row r="76" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B76" s="2"/>
     </row>
-    <row r="77" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B77" s="2"/>
     </row>
-    <row r="78" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B78" s="2"/>
     </row>
-    <row r="79" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B79" s="2"/>
     </row>
-    <row r="80" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B80" s="2"/>
     </row>
-    <row r="81" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B81" s="2"/>
     </row>
-    <row r="82" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B82" s="2"/>
     </row>
-    <row r="83" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B83" s="2"/>
     </row>
-    <row r="84" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B84" s="2"/>
     </row>
-    <row r="85" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B85" s="2"/>
     </row>
-    <row r="86" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B86" s="2"/>
     </row>
-    <row r="87" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B87" s="2"/>
     </row>
-    <row r="88" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B88" s="2"/>
     </row>
-    <row r="89" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B89" s="2"/>
     </row>
-    <row r="90" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B90" s="2"/>
     </row>
-    <row r="91" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B91" s="2"/>
     </row>
-    <row r="92" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B92" s="2"/>
     </row>
-    <row r="93" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B93" s="2"/>
     </row>
-    <row r="94" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B94" s="2"/>
     </row>
-    <row r="95" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B95" s="2"/>
     </row>
-    <row r="96" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B96" s="2"/>
     </row>
-    <row r="97" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B97" s="2"/>
     </row>
-    <row r="98" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B98" s="2"/>
     </row>
-    <row r="99" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B99" s="2"/>
     </row>
-    <row r="100" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B100" s="2"/>
     </row>
-    <row r="101" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B101" s="2"/>
     </row>
-    <row r="102" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B102" s="2"/>
     </row>
-    <row r="103" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B103" s="2"/>
     </row>
-    <row r="104" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B104" s="2"/>
     </row>
-    <row r="105" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B105" s="2"/>
     </row>
-    <row r="106" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B106" s="2"/>
     </row>
-    <row r="107" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B107" s="2"/>
     </row>
-    <row r="108" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B108" s="2"/>
     </row>
-    <row r="109" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B109" s="2"/>
     </row>
-    <row r="110" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B110" s="2"/>
     </row>
-    <row r="111" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B111" s="2"/>
     </row>
-    <row r="112" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B112" s="2"/>
     </row>
-    <row r="113" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B113" s="2"/>
     </row>
-    <row r="114" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B114" s="2"/>
     </row>
-    <row r="115" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B115" s="2"/>
     </row>
-    <row r="116" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B116" s="2"/>
     </row>
-    <row r="117" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B117" s="2"/>
     </row>
-    <row r="118" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B118" s="2"/>
     </row>
-    <row r="119" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B119" s="2"/>
     </row>
-    <row r="120" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B120" s="2"/>
     </row>
-    <row r="121" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B121" s="2"/>
     </row>
-    <row r="122" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B122" s="2"/>
     </row>
-    <row r="123" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B123" s="2"/>
     </row>
-    <row r="124" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B124" s="2"/>
     </row>
-    <row r="125" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B125" s="2"/>
     </row>
-    <row r="126" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B126" s="2"/>
     </row>
-    <row r="127" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B127" s="2"/>
     </row>
-    <row r="128" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B128" s="2"/>
     </row>
-    <row r="129" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B129" s="2"/>
     </row>
-    <row r="130" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B130" s="2"/>
     </row>
-    <row r="131" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B131" s="2"/>
     </row>
-    <row r="132" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B132" s="2"/>
     </row>
-    <row r="133" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B133" s="2"/>
     </row>
-    <row r="134" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B134" s="2"/>
     </row>
-    <row r="135" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B135" s="2"/>
     </row>
-    <row r="136" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B136" s="2"/>
     </row>
-    <row r="137" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B137" s="2"/>
     </row>
-    <row r="138" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B138" s="2"/>
     </row>
-    <row r="139" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B139" s="2"/>
     </row>
-    <row r="140" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B140" s="2"/>
     </row>
-    <row r="141" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B141" s="2"/>
     </row>
-    <row r="142" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B142" s="2"/>
     </row>
-    <row r="143" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B143" s="2"/>
     </row>
-    <row r="144" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B144" s="2"/>
     </row>
-    <row r="145" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B145" s="2"/>
     </row>
-    <row r="146" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B146" s="2"/>
     </row>
-    <row r="147" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B147" s="2"/>
     </row>
-    <row r="148" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B148" s="2"/>
     </row>
-    <row r="149" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B149" s="2"/>
     </row>
-    <row r="150" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B150" s="2"/>
     </row>
   </sheetData>

--- a/reports/contracts/files/contract_sketch.xlsx
+++ b/reports/contracts/files/contract_sketch.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Подразделение</t>
   </si>
@@ -64,6 +64,18 @@
   </si>
   <si>
     <t>ИНН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сумма договора </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выполнено на начало </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Остаток на начало </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оплата на начало </t>
   </si>
 </sst>
 </file>
@@ -427,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M150"/>
+  <dimension ref="A2:P150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -446,11 +458,11 @@
     <col min="9" max="10" width="33.5703125" style="4" customWidth="1"/>
     <col min="11" max="11" width="20.5703125" style="4" customWidth="1"/>
     <col min="12" max="12" width="16.28515625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="4"/>
+    <col min="13" max="16" width="14" style="4" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -487,9 +499,20 @@
       <c r="L2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="7"/>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="M2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -529,56 +552,65 @@
       <c r="M3" s="6">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="N3" s="6">
+        <v>14</v>
+      </c>
+      <c r="O3" s="6">
+        <v>15</v>
+      </c>
+      <c r="P3" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="2"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B7" s="2"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B10" s="2"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B11" s="2"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="2"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B14" s="2"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B15" s="2"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B16" s="2"/>
       <c r="M16" s="3"/>
     </row>

--- a/reports/contracts/files/contract_sketch.xlsx
+++ b/reports/contracts/files/contract_sketch.xlsx
@@ -82,8 +82,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -142,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -159,6 +160,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,7 +444,7 @@
   <dimension ref="A2:P150"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -564,7 +566,7 @@
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
-      <c r="M4" s="3"/>
+      <c r="M4" s="8"/>
     </row>
     <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>

--- a/reports/contracts/files/contract_sketch.xlsx
+++ b/reports/contracts/files/contract_sketch.xlsx
@@ -443,8 +443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -460,7 +460,7 @@
     <col min="9" max="10" width="33.5703125" style="4" customWidth="1"/>
     <col min="11" max="11" width="20.5703125" style="4" customWidth="1"/>
     <col min="12" max="12" width="16.28515625" style="4" customWidth="1"/>
-    <col min="13" max="16" width="14" style="4" customWidth="1"/>
+    <col min="13" max="16" width="14.7109375" style="4" customWidth="1"/>
     <col min="17" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>

--- a/reports/contracts/files/contract_sketch.xlsx
+++ b/reports/contracts/files/contract_sketch.xlsx
@@ -36,46 +36,46 @@
     <t>Заказчик</t>
   </si>
   <si>
+    <t xml:space="preserve">Номер генподрядного договора </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дата генподрядного договора </t>
+  </si>
+  <si>
+    <t>Срок окончания действия генподрядного договора</t>
+  </si>
+  <si>
+    <t>Объект</t>
+  </si>
+  <si>
+    <t>Признак договора</t>
+  </si>
+  <si>
+    <t>Исполнитель субподрядных работ</t>
+  </si>
+  <si>
+    <t>Номер договора субподряда</t>
+  </si>
+  <si>
+    <t>Дата договора субподряда</t>
+  </si>
+  <si>
+    <t>ИНН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сумма договора </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выполнено на начало </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Остаток на начало </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оплата на начало </t>
+  </si>
+  <si>
     <t>Отрасль/направление</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Номер генподрядного договора </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дата генподрядного договора </t>
-  </si>
-  <si>
-    <t>Срок окончания действия генподрядного договора</t>
-  </si>
-  <si>
-    <t>Объект</t>
-  </si>
-  <si>
-    <t>Признак договора</t>
-  </si>
-  <si>
-    <t>Исполнитель субподрядных работ</t>
-  </si>
-  <si>
-    <t>Номер договора субподряда</t>
-  </si>
-  <si>
-    <t>Дата договора субподряда</t>
-  </si>
-  <si>
-    <t>ИНН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сумма договора </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Выполнено на начало </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Остаток на начало </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Оплата на начало </t>
   </si>
 </sst>
 </file>
@@ -102,7 +102,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -115,8 +115,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -139,11 +145,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -161,6 +182,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,21 +468,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18" style="4" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="35" style="5" customWidth="1"/>
+    <col min="3" max="3" width="19" style="9" customWidth="1"/>
     <col min="4" max="4" width="17.140625" style="4" customWidth="1"/>
     <col min="5" max="5" width="17" style="4" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="27.28515625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" style="4" customWidth="1"/>
-    <col min="9" max="10" width="33.5703125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="34.28515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="55.7109375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="33.5703125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" style="4" customWidth="1"/>
     <col min="11" max="11" width="20.5703125" style="4" customWidth="1"/>
     <col min="12" max="12" width="16.28515625" style="4" customWidth="1"/>
     <col min="13" max="16" width="14.7109375" style="4" customWidth="1"/>
@@ -471,47 +497,47 @@
       <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="L2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="O2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="P2" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -521,9 +547,7 @@
       <c r="B3" s="6">
         <v>2</v>
       </c>
-      <c r="C3" s="6">
-        <v>3</v>
-      </c>
+      <c r="C3" s="9"/>
       <c r="D3" s="6">
         <v>4</v>
       </c>
@@ -566,475 +590,622 @@
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
+      <c r="C4" s="9"/>
       <c r="M4" s="8"/>
     </row>
     <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
+      <c r="C5" s="9"/>
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="2"/>
+      <c r="C6" s="9"/>
       <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B7" s="2"/>
+      <c r="C7" s="9"/>
       <c r="M7" s="3"/>
     </row>
     <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2"/>
+      <c r="C8" s="9"/>
       <c r="M8" s="3"/>
     </row>
     <row r="9" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2"/>
+      <c r="C9" s="9"/>
       <c r="M9" s="3"/>
     </row>
     <row r="10" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B10" s="2"/>
+      <c r="C10" s="9"/>
       <c r="M10" s="3"/>
     </row>
     <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B11" s="2"/>
+      <c r="C11" s="9"/>
       <c r="M11" s="3"/>
     </row>
     <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="2"/>
+      <c r="C12" s="9"/>
       <c r="M12" s="3"/>
     </row>
     <row r="13" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
+      <c r="C13" s="9"/>
       <c r="M13" s="3"/>
     </row>
     <row r="14" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B14" s="2"/>
+      <c r="C14" s="9"/>
       <c r="M14" s="3"/>
     </row>
     <row r="15" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B15" s="2"/>
+      <c r="C15" s="9"/>
       <c r="M15" s="3"/>
     </row>
     <row r="16" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B16" s="2"/>
+      <c r="C16" s="9"/>
       <c r="M16" s="3"/>
     </row>
     <row r="17" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B17" s="2"/>
+      <c r="C17" s="9"/>
       <c r="M17" s="3"/>
     </row>
     <row r="18" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B18" s="2"/>
+      <c r="C18" s="9"/>
       <c r="M18" s="3"/>
     </row>
     <row r="19" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B19" s="2"/>
+      <c r="C19" s="9"/>
       <c r="M19" s="3"/>
     </row>
     <row r="20" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B20" s="2"/>
+      <c r="C20" s="9"/>
       <c r="M20" s="3"/>
     </row>
     <row r="21" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B21" s="2"/>
+      <c r="C21" s="9"/>
       <c r="M21" s="3"/>
     </row>
     <row r="22" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B22" s="2"/>
+      <c r="C22" s="9"/>
       <c r="M22" s="3"/>
     </row>
     <row r="23" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B23" s="2"/>
+      <c r="C23" s="9"/>
       <c r="M23" s="3"/>
     </row>
     <row r="24" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B24" s="2"/>
+      <c r="C24" s="9"/>
       <c r="M24" s="3"/>
     </row>
     <row r="25" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B25" s="2"/>
+      <c r="C25" s="9"/>
       <c r="M25" s="3"/>
     </row>
     <row r="26" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B26" s="2"/>
+      <c r="C26" s="9"/>
       <c r="M26" s="3"/>
     </row>
     <row r="27" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B27" s="2"/>
+      <c r="C27" s="9"/>
       <c r="M27" s="3"/>
     </row>
     <row r="28" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B28" s="2"/>
+      <c r="C28" s="9"/>
       <c r="M28" s="3"/>
     </row>
     <row r="29" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B29" s="2"/>
+      <c r="C29" s="9"/>
       <c r="M29" s="3"/>
     </row>
     <row r="30" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B30" s="2"/>
+      <c r="C30" s="9"/>
       <c r="M30" s="3"/>
     </row>
     <row r="31" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B31" s="2"/>
+      <c r="C31" s="9"/>
       <c r="M31" s="3"/>
     </row>
     <row r="32" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B32" s="2"/>
+      <c r="C32" s="9"/>
       <c r="M32" s="3"/>
     </row>
     <row r="33" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B33" s="2"/>
+      <c r="C33" s="9"/>
       <c r="M33" s="3"/>
     </row>
     <row r="34" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B34" s="2"/>
+      <c r="C34" s="9"/>
       <c r="M34" s="3"/>
     </row>
     <row r="35" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B35" s="2"/>
+      <c r="C35" s="9"/>
     </row>
     <row r="36" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B36" s="2"/>
+      <c r="C36" s="9"/>
     </row>
     <row r="37" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B37" s="2"/>
+      <c r="C37" s="9"/>
     </row>
     <row r="38" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B38" s="2"/>
+      <c r="C38" s="9"/>
     </row>
     <row r="39" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B39" s="2"/>
+      <c r="C39" s="9"/>
     </row>
     <row r="40" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B40" s="2"/>
+      <c r="C40" s="9"/>
     </row>
     <row r="41" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B41" s="2"/>
+      <c r="C41" s="9"/>
     </row>
     <row r="42" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B42" s="2"/>
+      <c r="C42" s="9"/>
     </row>
     <row r="43" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B43" s="2"/>
+      <c r="C43" s="9"/>
     </row>
     <row r="44" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B44" s="2"/>
+      <c r="C44" s="9"/>
     </row>
     <row r="45" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B45" s="2"/>
+      <c r="C45" s="9"/>
     </row>
     <row r="46" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B46" s="2"/>
+      <c r="C46" s="9"/>
     </row>
     <row r="47" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B47" s="2"/>
+      <c r="C47" s="9"/>
     </row>
     <row r="48" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B48" s="2"/>
-    </row>
-    <row r="49" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C48" s="9"/>
+    </row>
+    <row r="49" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B49" s="2"/>
-    </row>
-    <row r="50" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C49" s="9"/>
+    </row>
+    <row r="50" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B50" s="2"/>
-    </row>
-    <row r="51" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C50" s="9"/>
+    </row>
+    <row r="51" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B51" s="2"/>
-    </row>
-    <row r="52" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C51" s="9"/>
+    </row>
+    <row r="52" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B52" s="2"/>
-    </row>
-    <row r="53" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C52" s="9"/>
+    </row>
+    <row r="53" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B53" s="2"/>
-    </row>
-    <row r="54" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C53" s="9"/>
+    </row>
+    <row r="54" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B54" s="2"/>
-    </row>
-    <row r="55" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C54" s="9"/>
+    </row>
+    <row r="55" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B55" s="2"/>
-    </row>
-    <row r="56" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C55" s="9"/>
+    </row>
+    <row r="56" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B56" s="2"/>
-    </row>
-    <row r="57" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C56" s="9"/>
+    </row>
+    <row r="57" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B57" s="2"/>
-    </row>
-    <row r="58" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C57" s="9"/>
+    </row>
+    <row r="58" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B58" s="2"/>
-    </row>
-    <row r="59" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C58" s="9"/>
+    </row>
+    <row r="59" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B59" s="2"/>
-    </row>
-    <row r="60" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C59" s="9"/>
+    </row>
+    <row r="60" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B60" s="2"/>
-    </row>
-    <row r="61" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C60" s="9"/>
+    </row>
+    <row r="61" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B61" s="2"/>
-    </row>
-    <row r="62" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C61" s="9"/>
+    </row>
+    <row r="62" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B62" s="2"/>
-    </row>
-    <row r="63" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C62" s="9"/>
+    </row>
+    <row r="63" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B63" s="2"/>
-    </row>
-    <row r="64" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C63" s="9"/>
+    </row>
+    <row r="64" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B64" s="2"/>
-    </row>
-    <row r="65" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C64" s="9"/>
+    </row>
+    <row r="65" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B65" s="2"/>
-    </row>
-    <row r="66" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C65" s="9"/>
+    </row>
+    <row r="66" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B66" s="2"/>
-    </row>
-    <row r="67" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C66" s="9"/>
+    </row>
+    <row r="67" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B67" s="2"/>
-    </row>
-    <row r="68" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C67" s="9"/>
+    </row>
+    <row r="68" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B68" s="2"/>
-    </row>
-    <row r="69" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C68" s="9"/>
+    </row>
+    <row r="69" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B69" s="2"/>
-    </row>
-    <row r="70" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C69" s="9"/>
+    </row>
+    <row r="70" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B70" s="2"/>
-    </row>
-    <row r="71" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C70" s="9"/>
+    </row>
+    <row r="71" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B71" s="2"/>
-    </row>
-    <row r="72" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C71" s="9"/>
+    </row>
+    <row r="72" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B72" s="2"/>
-    </row>
-    <row r="73" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C72" s="9"/>
+    </row>
+    <row r="73" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B73" s="2"/>
-    </row>
-    <row r="74" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C73" s="9"/>
+    </row>
+    <row r="74" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B74" s="2"/>
-    </row>
-    <row r="75" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C74" s="9"/>
+    </row>
+    <row r="75" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B75" s="2"/>
-    </row>
-    <row r="76" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C75" s="9"/>
+    </row>
+    <row r="76" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B76" s="2"/>
-    </row>
-    <row r="77" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C76" s="9"/>
+    </row>
+    <row r="77" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B77" s="2"/>
-    </row>
-    <row r="78" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C77" s="9"/>
+    </row>
+    <row r="78" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B78" s="2"/>
-    </row>
-    <row r="79" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C78" s="9"/>
+    </row>
+    <row r="79" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B79" s="2"/>
-    </row>
-    <row r="80" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C79" s="9"/>
+    </row>
+    <row r="80" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B80" s="2"/>
-    </row>
-    <row r="81" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C80" s="9"/>
+    </row>
+    <row r="81" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B81" s="2"/>
-    </row>
-    <row r="82" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C81" s="9"/>
+    </row>
+    <row r="82" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B82" s="2"/>
-    </row>
-    <row r="83" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C82" s="9"/>
+    </row>
+    <row r="83" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B83" s="2"/>
-    </row>
-    <row r="84" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C83" s="9"/>
+    </row>
+    <row r="84" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B84" s="2"/>
-    </row>
-    <row r="85" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C84" s="9"/>
+    </row>
+    <row r="85" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B85" s="2"/>
-    </row>
-    <row r="86" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C85" s="9"/>
+    </row>
+    <row r="86" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B86" s="2"/>
-    </row>
-    <row r="87" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C86" s="9"/>
+    </row>
+    <row r="87" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B87" s="2"/>
-    </row>
-    <row r="88" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C87" s="9"/>
+    </row>
+    <row r="88" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B88" s="2"/>
-    </row>
-    <row r="89" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C88" s="9"/>
+    </row>
+    <row r="89" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B89" s="2"/>
-    </row>
-    <row r="90" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C89" s="9"/>
+    </row>
+    <row r="90" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B90" s="2"/>
-    </row>
-    <row r="91" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C90" s="9"/>
+    </row>
+    <row r="91" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B91" s="2"/>
-    </row>
-    <row r="92" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C91" s="9"/>
+    </row>
+    <row r="92" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B92" s="2"/>
-    </row>
-    <row r="93" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C92" s="9"/>
+    </row>
+    <row r="93" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B93" s="2"/>
-    </row>
-    <row r="94" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C93" s="9"/>
+    </row>
+    <row r="94" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B94" s="2"/>
-    </row>
-    <row r="95" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C94" s="9"/>
+    </row>
+    <row r="95" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B95" s="2"/>
-    </row>
-    <row r="96" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C95" s="9"/>
+    </row>
+    <row r="96" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B96" s="2"/>
-    </row>
-    <row r="97" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C96" s="9"/>
+    </row>
+    <row r="97" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B97" s="2"/>
-    </row>
-    <row r="98" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C97" s="9"/>
+    </row>
+    <row r="98" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B98" s="2"/>
-    </row>
-    <row r="99" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C98" s="9"/>
+    </row>
+    <row r="99" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B99" s="2"/>
-    </row>
-    <row r="100" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C99" s="9"/>
+    </row>
+    <row r="100" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B100" s="2"/>
-    </row>
-    <row r="101" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C100" s="9"/>
+    </row>
+    <row r="101" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B101" s="2"/>
-    </row>
-    <row r="102" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C101" s="9"/>
+    </row>
+    <row r="102" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B102" s="2"/>
-    </row>
-    <row r="103" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C102" s="9"/>
+    </row>
+    <row r="103" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B103" s="2"/>
-    </row>
-    <row r="104" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C103" s="9"/>
+    </row>
+    <row r="104" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B104" s="2"/>
-    </row>
-    <row r="105" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C104" s="9"/>
+    </row>
+    <row r="105" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B105" s="2"/>
-    </row>
-    <row r="106" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C105" s="9"/>
+    </row>
+    <row r="106" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B106" s="2"/>
-    </row>
-    <row r="107" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C106" s="9"/>
+    </row>
+    <row r="107" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B107" s="2"/>
-    </row>
-    <row r="108" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C107" s="9"/>
+    </row>
+    <row r="108" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B108" s="2"/>
-    </row>
-    <row r="109" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C108" s="9"/>
+    </row>
+    <row r="109" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B109" s="2"/>
-    </row>
-    <row r="110" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C109" s="9"/>
+    </row>
+    <row r="110" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B110" s="2"/>
-    </row>
-    <row r="111" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C110" s="9"/>
+    </row>
+    <row r="111" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B111" s="2"/>
-    </row>
-    <row r="112" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C111" s="9"/>
+    </row>
+    <row r="112" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B112" s="2"/>
-    </row>
-    <row r="113" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C112" s="9"/>
+    </row>
+    <row r="113" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B113" s="2"/>
-    </row>
-    <row r="114" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C113" s="9"/>
+    </row>
+    <row r="114" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B114" s="2"/>
-    </row>
-    <row r="115" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C114" s="9"/>
+    </row>
+    <row r="115" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B115" s="2"/>
-    </row>
-    <row r="116" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C115" s="9"/>
+    </row>
+    <row r="116" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B116" s="2"/>
-    </row>
-    <row r="117" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C116" s="9"/>
+    </row>
+    <row r="117" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B117" s="2"/>
-    </row>
-    <row r="118" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C117" s="9"/>
+    </row>
+    <row r="118" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B118" s="2"/>
-    </row>
-    <row r="119" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C118" s="9"/>
+    </row>
+    <row r="119" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B119" s="2"/>
-    </row>
-    <row r="120" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C119" s="9"/>
+    </row>
+    <row r="120" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B120" s="2"/>
-    </row>
-    <row r="121" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C120" s="9"/>
+    </row>
+    <row r="121" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B121" s="2"/>
-    </row>
-    <row r="122" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C121" s="9"/>
+    </row>
+    <row r="122" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B122" s="2"/>
-    </row>
-    <row r="123" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C122" s="9"/>
+    </row>
+    <row r="123" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B123" s="2"/>
-    </row>
-    <row r="124" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C123" s="9"/>
+    </row>
+    <row r="124" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B124" s="2"/>
-    </row>
-    <row r="125" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C124" s="9"/>
+    </row>
+    <row r="125" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B125" s="2"/>
-    </row>
-    <row r="126" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C125" s="9"/>
+    </row>
+    <row r="126" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B126" s="2"/>
-    </row>
-    <row r="127" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C126" s="9"/>
+    </row>
+    <row r="127" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B127" s="2"/>
-    </row>
-    <row r="128" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C127" s="9"/>
+    </row>
+    <row r="128" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B128" s="2"/>
-    </row>
-    <row r="129" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C128" s="9"/>
+    </row>
+    <row r="129" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B129" s="2"/>
-    </row>
-    <row r="130" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C129" s="9"/>
+    </row>
+    <row r="130" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B130" s="2"/>
-    </row>
-    <row r="131" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C130" s="9"/>
+    </row>
+    <row r="131" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B131" s="2"/>
-    </row>
-    <row r="132" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C131" s="9"/>
+    </row>
+    <row r="132" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B132" s="2"/>
-    </row>
-    <row r="133" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C132" s="9"/>
+    </row>
+    <row r="133" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B133" s="2"/>
-    </row>
-    <row r="134" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C133" s="9"/>
+    </row>
+    <row r="134" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B134" s="2"/>
-    </row>
-    <row r="135" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C134" s="9"/>
+    </row>
+    <row r="135" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B135" s="2"/>
-    </row>
-    <row r="136" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C135" s="9"/>
+    </row>
+    <row r="136" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B136" s="2"/>
-    </row>
-    <row r="137" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C136" s="9"/>
+    </row>
+    <row r="137" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B137" s="2"/>
-    </row>
-    <row r="138" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C137" s="9"/>
+    </row>
+    <row r="138" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B138" s="2"/>
-    </row>
-    <row r="139" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C138" s="9"/>
+    </row>
+    <row r="139" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B139" s="2"/>
-    </row>
-    <row r="140" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C139" s="9"/>
+    </row>
+    <row r="140" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B140" s="2"/>
-    </row>
-    <row r="141" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C140" s="9"/>
+    </row>
+    <row r="141" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B141" s="2"/>
-    </row>
-    <row r="142" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C141" s="9"/>
+    </row>
+    <row r="142" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B142" s="2"/>
-    </row>
-    <row r="143" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C142" s="9"/>
+    </row>
+    <row r="143" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B143" s="2"/>
-    </row>
-    <row r="144" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C143" s="9"/>
+    </row>
+    <row r="144" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B144" s="2"/>
-    </row>
-    <row r="145" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C144" s="9"/>
+    </row>
+    <row r="145" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B145" s="2"/>
-    </row>
-    <row r="146" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C145" s="9"/>
+    </row>
+    <row r="146" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B146" s="2"/>
-    </row>
-    <row r="147" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C146" s="9"/>
+    </row>
+    <row r="147" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B147" s="2"/>
-    </row>
-    <row r="148" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C147" s="9"/>
+    </row>
+    <row r="148" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B148" s="2"/>
-    </row>
-    <row r="149" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C148" s="9"/>
+    </row>
+    <row r="149" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B149" s="2"/>
-    </row>
-    <row r="150" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C149" s="9"/>
+    </row>
+    <row r="150" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B150" s="2"/>
+      <c r="C150" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:M2"/>

--- a/reports/contracts/files/contract_sketch.xlsx
+++ b/reports/contracts/files/contract_sketch.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\python\ecm\reports\contracts\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My documents\Python\ecm\reports\contracts\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11550"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11556"/>
   </bookViews>
   <sheets>
     <sheet name="Договоры" sheetId="1" r:id="rId1"/>
@@ -469,28 +469,28 @@
   <dimension ref="A2:P150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" style="4" customWidth="1"/>
     <col min="2" max="2" width="35" style="5" customWidth="1"/>
     <col min="3" max="3" width="19" style="9" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" style="4" customWidth="1"/>
     <col min="5" max="5" width="17" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="34.28515625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="55.7109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="33.5703125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="20.5703125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" style="4" customWidth="1"/>
-    <col min="13" max="16" width="14.7109375" style="4" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="4"/>
+    <col min="6" max="6" width="12.6640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="34.33203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="55.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="33.5546875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="19.109375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="20.5546875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" style="4" customWidth="1"/>
+    <col min="13" max="16" width="14.6640625" style="4" customWidth="1"/>
+    <col min="17" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -540,14 +540,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>1</v>
       </c>
       <c r="B3" s="6">
         <v>2</v>
       </c>
-      <c r="C3" s="9"/>
+      <c r="C3" s="6">
+        <v>3</v>
+      </c>
       <c r="D3" s="6">
         <v>4</v>
       </c>
@@ -588,622 +590,622 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2"/>
       <c r="C4" s="9"/>
       <c r="M4" s="8"/>
     </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
       <c r="C5" s="9"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="9"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
       <c r="C7" s="9"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="9"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
       <c r="C9" s="9"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
       <c r="C10" s="9"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" s="9"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="C12" s="9"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="C13" s="9"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
       <c r="C14" s="9"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
       <c r="C15" s="9"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
       <c r="C16" s="9"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
       <c r="C17" s="9"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
       <c r="C18" s="9"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="C19" s="9"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="C20" s="9"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="C21" s="9"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
       <c r="C22" s="9"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="2"/>
       <c r="C23" s="9"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
       <c r="C24" s="9"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
       <c r="C25" s="9"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
       <c r="C26" s="9"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
       <c r="C27" s="9"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
       <c r="C28" s="9"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
       <c r="C29" s="9"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
       <c r="C30" s="9"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="2"/>
       <c r="C31" s="9"/>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="2"/>
       <c r="C32" s="9"/>
       <c r="M32" s="3"/>
     </row>
-    <row r="33" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="2"/>
       <c r="C33" s="9"/>
       <c r="M33" s="3"/>
     </row>
-    <row r="34" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
       <c r="C34" s="9"/>
       <c r="M34" s="3"/>
     </row>
-    <row r="35" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="2"/>
       <c r="C35" s="9"/>
     </row>
-    <row r="36" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="2"/>
       <c r="C36" s="9"/>
     </row>
-    <row r="37" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
       <c r="C37" s="9"/>
     </row>
-    <row r="38" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
       <c r="C38" s="9"/>
     </row>
-    <row r="39" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
       <c r="C39" s="9"/>
     </row>
-    <row r="40" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
       <c r="C40" s="9"/>
     </row>
-    <row r="41" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="2"/>
       <c r="C41" s="9"/>
     </row>
-    <row r="42" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="2"/>
       <c r="C42" s="9"/>
     </row>
-    <row r="43" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="2"/>
       <c r="C43" s="9"/>
     </row>
-    <row r="44" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="2"/>
       <c r="C44" s="9"/>
     </row>
-    <row r="45" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="2"/>
       <c r="C45" s="9"/>
     </row>
-    <row r="46" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="2"/>
       <c r="C46" s="9"/>
     </row>
-    <row r="47" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="2"/>
       <c r="C47" s="9"/>
     </row>
-    <row r="48" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="2"/>
       <c r="C48" s="9"/>
     </row>
-    <row r="49" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="2"/>
       <c r="C49" s="9"/>
     </row>
-    <row r="50" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="2"/>
       <c r="C50" s="9"/>
     </row>
-    <row r="51" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="2"/>
       <c r="C51" s="9"/>
     </row>
-    <row r="52" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="2"/>
       <c r="C52" s="9"/>
     </row>
-    <row r="53" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="2"/>
       <c r="C53" s="9"/>
     </row>
-    <row r="54" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="2"/>
       <c r="C54" s="9"/>
     </row>
-    <row r="55" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="2"/>
       <c r="C55" s="9"/>
     </row>
-    <row r="56" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="2"/>
       <c r="C56" s="9"/>
     </row>
-    <row r="57" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="2"/>
       <c r="C57" s="9"/>
     </row>
-    <row r="58" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="2"/>
       <c r="C58" s="9"/>
     </row>
-    <row r="59" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="2"/>
       <c r="C59" s="9"/>
     </row>
-    <row r="60" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="2"/>
       <c r="C60" s="9"/>
     </row>
-    <row r="61" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="2"/>
       <c r="C61" s="9"/>
     </row>
-    <row r="62" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="2"/>
       <c r="C62" s="9"/>
     </row>
-    <row r="63" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="2"/>
       <c r="C63" s="9"/>
     </row>
-    <row r="64" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="2"/>
       <c r="C64" s="9"/>
     </row>
-    <row r="65" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="2"/>
       <c r="C65" s="9"/>
     </row>
-    <row r="66" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="2"/>
       <c r="C66" s="9"/>
     </row>
-    <row r="67" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="2"/>
       <c r="C67" s="9"/>
     </row>
-    <row r="68" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="2"/>
       <c r="C68" s="9"/>
     </row>
-    <row r="69" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="2"/>
       <c r="C69" s="9"/>
     </row>
-    <row r="70" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="2"/>
       <c r="C70" s="9"/>
     </row>
-    <row r="71" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="2"/>
       <c r="C71" s="9"/>
     </row>
-    <row r="72" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="2"/>
       <c r="C72" s="9"/>
     </row>
-    <row r="73" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="2"/>
       <c r="C73" s="9"/>
     </row>
-    <row r="74" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="2"/>
       <c r="C74" s="9"/>
     </row>
-    <row r="75" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="2"/>
       <c r="C75" s="9"/>
     </row>
-    <row r="76" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="2"/>
       <c r="C76" s="9"/>
     </row>
-    <row r="77" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="2"/>
       <c r="C77" s="9"/>
     </row>
-    <row r="78" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="2"/>
       <c r="C78" s="9"/>
     </row>
-    <row r="79" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B79" s="2"/>
       <c r="C79" s="9"/>
     </row>
-    <row r="80" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B80" s="2"/>
       <c r="C80" s="9"/>
     </row>
-    <row r="81" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B81" s="2"/>
       <c r="C81" s="9"/>
     </row>
-    <row r="82" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="2"/>
       <c r="C82" s="9"/>
     </row>
-    <row r="83" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="2"/>
       <c r="C83" s="9"/>
     </row>
-    <row r="84" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B84" s="2"/>
       <c r="C84" s="9"/>
     </row>
-    <row r="85" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B85" s="2"/>
       <c r="C85" s="9"/>
     </row>
-    <row r="86" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B86" s="2"/>
       <c r="C86" s="9"/>
     </row>
-    <row r="87" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B87" s="2"/>
       <c r="C87" s="9"/>
     </row>
-    <row r="88" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B88" s="2"/>
       <c r="C88" s="9"/>
     </row>
-    <row r="89" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B89" s="2"/>
       <c r="C89" s="9"/>
     </row>
-    <row r="90" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B90" s="2"/>
       <c r="C90" s="9"/>
     </row>
-    <row r="91" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B91" s="2"/>
       <c r="C91" s="9"/>
     </row>
-    <row r="92" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B92" s="2"/>
       <c r="C92" s="9"/>
     </row>
-    <row r="93" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B93" s="2"/>
       <c r="C93" s="9"/>
     </row>
-    <row r="94" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B94" s="2"/>
       <c r="C94" s="9"/>
     </row>
-    <row r="95" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B95" s="2"/>
       <c r="C95" s="9"/>
     </row>
-    <row r="96" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B96" s="2"/>
       <c r="C96" s="9"/>
     </row>
-    <row r="97" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B97" s="2"/>
       <c r="C97" s="9"/>
     </row>
-    <row r="98" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B98" s="2"/>
       <c r="C98" s="9"/>
     </row>
-    <row r="99" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B99" s="2"/>
       <c r="C99" s="9"/>
     </row>
-    <row r="100" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B100" s="2"/>
       <c r="C100" s="9"/>
     </row>
-    <row r="101" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B101" s="2"/>
       <c r="C101" s="9"/>
     </row>
-    <row r="102" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B102" s="2"/>
       <c r="C102" s="9"/>
     </row>
-    <row r="103" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B103" s="2"/>
       <c r="C103" s="9"/>
     </row>
-    <row r="104" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B104" s="2"/>
       <c r="C104" s="9"/>
     </row>
-    <row r="105" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B105" s="2"/>
       <c r="C105" s="9"/>
     </row>
-    <row r="106" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B106" s="2"/>
       <c r="C106" s="9"/>
     </row>
-    <row r="107" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B107" s="2"/>
       <c r="C107" s="9"/>
     </row>
-    <row r="108" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B108" s="2"/>
       <c r="C108" s="9"/>
     </row>
-    <row r="109" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B109" s="2"/>
       <c r="C109" s="9"/>
     </row>
-    <row r="110" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B110" s="2"/>
       <c r="C110" s="9"/>
     </row>
-    <row r="111" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B111" s="2"/>
       <c r="C111" s="9"/>
     </row>
-    <row r="112" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B112" s="2"/>
       <c r="C112" s="9"/>
     </row>
-    <row r="113" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B113" s="2"/>
       <c r="C113" s="9"/>
     </row>
-    <row r="114" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B114" s="2"/>
       <c r="C114" s="9"/>
     </row>
-    <row r="115" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B115" s="2"/>
       <c r="C115" s="9"/>
     </row>
-    <row r="116" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B116" s="2"/>
       <c r="C116" s="9"/>
     </row>
-    <row r="117" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B117" s="2"/>
       <c r="C117" s="9"/>
     </row>
-    <row r="118" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B118" s="2"/>
       <c r="C118" s="9"/>
     </row>
-    <row r="119" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B119" s="2"/>
       <c r="C119" s="9"/>
     </row>
-    <row r="120" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B120" s="2"/>
       <c r="C120" s="9"/>
     </row>
-    <row r="121" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B121" s="2"/>
       <c r="C121" s="9"/>
     </row>
-    <row r="122" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B122" s="2"/>
       <c r="C122" s="9"/>
     </row>
-    <row r="123" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B123" s="2"/>
       <c r="C123" s="9"/>
     </row>
-    <row r="124" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B124" s="2"/>
       <c r="C124" s="9"/>
     </row>
-    <row r="125" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B125" s="2"/>
       <c r="C125" s="9"/>
     </row>
-    <row r="126" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B126" s="2"/>
       <c r="C126" s="9"/>
     </row>
-    <row r="127" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B127" s="2"/>
       <c r="C127" s="9"/>
     </row>
-    <row r="128" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B128" s="2"/>
       <c r="C128" s="9"/>
     </row>
-    <row r="129" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B129" s="2"/>
       <c r="C129" s="9"/>
     </row>
-    <row r="130" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B130" s="2"/>
       <c r="C130" s="9"/>
     </row>
-    <row r="131" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B131" s="2"/>
       <c r="C131" s="9"/>
     </row>
-    <row r="132" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B132" s="2"/>
       <c r="C132" s="9"/>
     </row>
-    <row r="133" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B133" s="2"/>
       <c r="C133" s="9"/>
     </row>
-    <row r="134" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B134" s="2"/>
       <c r="C134" s="9"/>
     </row>
-    <row r="135" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B135" s="2"/>
       <c r="C135" s="9"/>
     </row>
-    <row r="136" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B136" s="2"/>
       <c r="C136" s="9"/>
     </row>
-    <row r="137" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B137" s="2"/>
       <c r="C137" s="9"/>
     </row>
-    <row r="138" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B138" s="2"/>
       <c r="C138" s="9"/>
     </row>
-    <row r="139" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B139" s="2"/>
       <c r="C139" s="9"/>
     </row>
-    <row r="140" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B140" s="2"/>
       <c r="C140" s="9"/>
     </row>
-    <row r="141" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B141" s="2"/>
       <c r="C141" s="9"/>
     </row>
-    <row r="142" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B142" s="2"/>
       <c r="C142" s="9"/>
     </row>
-    <row r="143" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B143" s="2"/>
       <c r="C143" s="9"/>
     </row>
-    <row r="144" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B144" s="2"/>
       <c r="C144" s="9"/>
     </row>
-    <row r="145" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B145" s="2"/>
       <c r="C145" s="9"/>
     </row>
-    <row r="146" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B146" s="2"/>
       <c r="C146" s="9"/>
     </row>
-    <row r="147" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B147" s="2"/>
       <c r="C147" s="9"/>
     </row>
-    <row r="148" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B148" s="2"/>
       <c r="C148" s="9"/>
     </row>
-    <row r="149" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B149" s="2"/>
       <c r="C149" s="9"/>
     </row>
-    <row r="150" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B150" s="2"/>
       <c r="C150" s="9"/>
     </row>
